--- a/xlsx/白令海峡_intext.xlsx
+++ b/xlsx/白令海峡_intext.xlsx
@@ -15,1083 +15,1086 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
   <si>
     <t>白令海峡</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_白令海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%AD%E6%97%A5%E6%B6%85%E5%A4%AB%E8%A7%92</t>
+  </si>
+  <si>
+    <t>迭日涅夫角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E5%A3%AB%E7%8E%8B%E5%AD%90%E8%A7%92</t>
+  </si>
+  <si>
+    <t>威尔士王子角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E7%A7%91%E5%A5%87%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>楚科奇海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%86%B0%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>北冰洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>白令海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>太平洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%BB%96%E6%96%AF%C2%B7%E7%99%BD%E4%BB%A4</t>
+  </si>
+  <si>
+    <t>维他斯·白令</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E5%A5%A7%E7%B1%B3%E5%BE%B7%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>代奥米德群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%90%8C%E7%82%8E</t>
+  </si>
+  <si>
+    <t>林同炎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7%E5%B3%BD%E9%80%9A%E9%81%93</t>
+  </si>
+  <si>
+    <t>白令海峡通道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>阿拉斯加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
+  </si>
+  <si>
+    <t>苏联</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>西伯利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>隧道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%B2%B3%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>冰河时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%A6%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>考古学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印第安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%BD%E7%BE%A4</t>
+  </si>
+  <si>
+    <t>兽群</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BB%A3%E5%A5%A7%E7%B1%B3%E5%BE%B7%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>大代奥米德岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%BB%A3%E5%A5%A7%E7%B1%B3%E5%BE%B7%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>小代奥米德岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>公里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>罗纳德·里根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%E7%88%BE%C2%B7%E6%88%88%E7%88%BE%E5%B7%B4%E5%96%AC%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>米哈伊尔·戈尔巴乔夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B3%A5%E4%BF%BA%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>亚泥俺海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%99%E6%A3%AE%E7%81%A3</t>
+  </si>
+  <si>
+    <t>阿蒙森湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%80%AB%E6%94%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>巴伦支海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BC%97%E7%89%B9%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>波弗特海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>东西伯利亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%A7%86%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>弗拉姆海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>格陵兰海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%A5%BF%E4%BA%9E%E7%81%A3</t>
+  </si>
+  <si>
+    <t>布西亚湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E6%8B%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>喀拉海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>卡拉海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E6%8D%B7%E5%A4%AB%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>拉普捷夫海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>林肯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB%E9%98%BF%E9%81%93%E5%A4%AB%E7%8E%8B%E5%AD%90%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>古斯塔夫阿道夫王子海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%9C%9D%E6%8B%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>伯朝拉海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%BA%E5%BE%B7%E7%88%BE%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>旺德尔海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>白海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>大西洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BE%97%E9%87%8C%E4%BA%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>亚得里亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爱琴海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B2%83%E5%85%B0%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>阿尔沃兰海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B2%9B%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>群岛海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>阿根廷海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%8A%AC%E7%81%A3</t>
+  </si>
+  <si>
+    <t>巴芬湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>巴利阿里海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BD%97%E7%9A%84%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>波罗的海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E9%96%8B%E7%81%A3</t>
+  </si>
+  <si>
+    <t>比斯开湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%9A%84%E5%B0%BC%E4%BA%9E%E7%81%A3</t>
+  </si>
+  <si>
+    <t>波的尼亚湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E4%BD%A9%E5%88%87%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>坎佩切湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%BF%AA%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>芬迪湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>黑海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%BB%95%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>博滕海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>加勒比海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>凯尔特海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%E6%96%AF%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>戴维斯海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>丹麦海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%90%89%E5%88%A9%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>英吉利海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E6%96%AF%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>福克斯湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E7%81%A3</t>
+  </si>
+  <si>
+    <t>芬兰湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%BF%81%E7%81%A3</t>
+  </si>
+  <si>
+    <t>利翁湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>几内亚湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>缅因湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>墨西哥湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E7%81%A3</t>
+  </si>
+  <si>
+    <t>圣罗伦斯湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>委内瑞拉湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E6%A3%AE%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>哈德森湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E7%81%A3</t>
+  </si>
+  <si>
+    <t>詹姆斯湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爱奥尼亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爱尔兰海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%88%BE%E6%98%8E%E5%8E%84%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>伊尔明厄海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B8%83%E6%8B%89%E5%A4%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>拉布拉多海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%87%A1%E7%89%B9%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>黎凡特海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>利比亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>利古里亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>马尔马拉海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>地中海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E6%89%98%E7%BF%81%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>米尔托翁海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7_(%E5%A4%A7%E8%A5%BF%E6%B4%8B)</t>
+  </si>
+  <si>
+    <t>北海 (大西洋)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>挪威海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E6%B5%B7%E9%81%93</t>
+  </si>
+  <si>
+    <t>圣罗伦斯海道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%BE%E8%97%BB%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>马尾藻海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>奥兰海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%80%9F%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>亚速海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>克里特海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B8%83%E9%87%8C%E5%BA%95%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>赫布里底海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>色雷斯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8B%92%E5%B0%BC%E5%AE%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>第勒尼安海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>印度洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%BE%BE%E6%9B%BC%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>安达曼海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>阿拉伯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E7%81%A3</t>
+  </si>
+  <si>
+    <t>孟加拉湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%B8%81%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>亚丁湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%96%80%E5%B7%B4%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>亚喀巴湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E8%B4%9D%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>坎贝湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%98%A0%E5%A5%87%E7%81%A3</t>
+  </si>
+  <si>
+    <t>嘠奇湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E7%81%A3</t>
+  </si>
+  <si>
+    <t>阿曼湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%BC%8A%E5%A3%AB%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>苏伊士湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%85%8B%E4%BB%A3%E5%A4%AB%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>拉克代夫海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>莫桑比克海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>波斯湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>红海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%AD%E7%94%B2%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>马六甲海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E6%B1%B6%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>帝汶海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%BC%97%E6%8B%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>阿拉弗拉海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%87%E9%87%8C%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>峇里海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E8%BE%BE%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>班达海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%BE%E6%96%AF%E9%BA%A6%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>俾斯麦海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A4%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>渤海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%92%8C%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>保和海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%8E%AB%E7%89%B9%E6%96%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>卡莫特斯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E4%BC%AF%E6%96%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>西里伯斯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>台湾海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>巴士海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%98%AD%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>塞兰海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>智利海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>珊瑚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>东海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E5%8B%92%E6%96%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>弗洛勒斯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>阿拉斯加湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>加利福尼亚湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A5%94%E5%A1%94%E5%88%A9%E4%BA%9E%E7%81%A3</t>
+  </si>
+  <si>
+    <t>卡奔塔利亚湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E5%A1%9E%E5%8D%A1%E7%81%A3</t>
+  </si>
+  <si>
+    <t>丰塞卡湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E7%81%A3</t>
+  </si>
+  <si>
+    <t>泰国湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>北部湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC%E9%BB%91%E6%8B%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>哈马黑拉海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%AA%E5%93%87%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爪哇海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>科罗海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9B%E5%8A%A0%E9%94%A1%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>望加锡海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%AD%AF%E5%8F%A4%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>马鲁古海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E7%BE%85%E7%81%A3</t>
+  </si>
+  <si>
+    <t>莫罗湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>菲律宾海</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Salish_Sea</t>
+  </si>
+  <si>
+    <t>en-Salish Sea</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%AD%A6%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>萨武海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>日本海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%84%82%E9%9C%8D%E6%AC%A1%E5%85%8B%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>鄂霍次克海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%80%A8%E6%88%B6%E5%85%A7%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>濑户内海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%B8%83%E5%BB%B6%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>锡布延海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>所罗门海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>南海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%A6%84%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>苏禄海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%96%AF%E6%9B%BC%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>塔斯曼海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%B2%99%E9%84%A2%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>米沙鄢海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>黄海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%86%B0%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>南冰洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%99%E6%A3%AE%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>阿蒙森海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%AB%E6%9E%97%E6%96%AF%E9%AB%98%E6%99%8B%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>别林斯高晋海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>英联邦海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E8%88%AA%E5%93%A1%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>宇航员海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%E6%96%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>戴维斯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%B0%94%E7%BB%B4%E5%B0%94%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>迪尔维尔海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BA%B7%E4%B8%83%E4%B8%96%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>哈康七世海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%89%8E%E5%88%97%E5%A4%AB%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>拉扎列夫海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%91%9F%E7%88%BE-%E6%8B%89%E6%A3%AE%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>里瑟尔-拉森海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A3%AE%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>莫森海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>罗斯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E8%88%8D%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>斯科舍海</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Somov_Sea</t>
+  </si>
+  <si>
+    <t>en-Somov Sea</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BE%B7%E5%B0%94%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>威德尔海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B9%B9%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>咸海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A3%A1%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>里海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%88%BE%E9%A0%93%E6%B9%96</t>
+  </si>
+  <si>
+    <t>索尔顿湖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>死海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7%E5%B3%A1</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亚洲</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_白令海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%AD%E6%97%A5%E6%B6%85%E5%A4%AB%E8%A7%92</t>
-  </si>
-  <si>
-    <t>迭日涅夫角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E5%A3%AB%E7%8E%8B%E5%AD%90%E8%A7%92</t>
-  </si>
-  <si>
-    <t>威尔士王子角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E7%A7%91%E5%A5%87%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>楚科奇海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%86%B0%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>北冰洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>白令海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>太平洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%BB%96%E6%96%AF%C2%B7%E7%99%BD%E4%BB%A4</t>
-  </si>
-  <si>
-    <t>维他斯·白令</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E5%A5%A7%E7%B1%B3%E5%BE%B7%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>代奧米德群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%90%8C%E7%82%8E</t>
-  </si>
-  <si>
-    <t>林同炎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7%E5%B3%BD%E9%80%9A%E9%81%93</t>
-  </si>
-  <si>
-    <t>白令海峽通道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>阿拉斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
-  </si>
-  <si>
-    <t>苏联</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>西伯利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>隧道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%B2%B3%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>冰河时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%A6%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>考古学家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印第安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%BD%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>兽群</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>冷戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
-  </si>
-  <si>
-    <t>蘇聯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BB%A3%E5%A5%A7%E7%B1%B3%E5%BE%B7%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>大代奧米德島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%BB%A3%E5%A5%A7%E7%B1%B3%E5%BE%B7%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>小代奧米德島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>公里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>羅納德·里根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%E7%88%BE%C2%B7%E6%88%88%E7%88%BE%E5%B7%B4%E5%96%AC%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>米哈伊爾·戈爾巴喬夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
-  </si>
-  <si>
-    <t>Wayback Machine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B3%A5%E4%BF%BA%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>亚泥俺海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%99%E6%A3%AE%E7%81%A3</t>
-  </si>
-  <si>
-    <t>阿蒙森灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%80%AB%E6%94%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>巴倫支海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BC%97%E7%89%B9%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>波弗特海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>东西伯利亚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%A7%86%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>弗拉姆海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>格陵兰海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%A5%BF%E4%BA%9E%E7%81%A3</t>
-  </si>
-  <si>
-    <t>布西亞灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E6%8B%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>喀拉海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>卡拉海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E6%8D%B7%E5%A4%AB%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>拉普捷夫海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>林肯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB%E9%98%BF%E9%81%93%E5%A4%AB%E7%8E%8B%E5%AD%90%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>古斯塔夫阿道夫王子海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%9C%9D%E6%8B%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>伯朝拉海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%BA%E5%BE%B7%E7%88%BE%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>旺德爾海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>白海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>大西洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BE%97%E9%87%8C%E4%BA%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>亚得里亚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>爱琴海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B2%83%E5%85%B0%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>阿尔沃兰海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B2%9B%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>群岛海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>阿根廷海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%8A%AC%E7%81%A3</t>
-  </si>
-  <si>
-    <t>巴芬灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>巴利阿里海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BD%97%E7%9A%84%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>波罗的海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E9%96%8B%E7%81%A3</t>
-  </si>
-  <si>
-    <t>比斯開灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%9A%84%E5%B0%BC%E4%BA%9E%E7%81%A3</t>
-  </si>
-  <si>
-    <t>波的尼亞灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E4%BD%A9%E5%88%87%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>坎佩切湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%BF%AA%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>芬迪湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>黑海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%BB%95%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>博滕海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>加勒比海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>凱爾特海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%E6%96%AF%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>戴维斯海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>丹麦海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%90%89%E5%88%A9%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>英吉利海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E6%96%AF%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>福克斯湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E7%81%A3</t>
-  </si>
-  <si>
-    <t>芬蘭灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%BF%81%E7%81%A3</t>
-  </si>
-  <si>
-    <t>利翁灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>几内亚湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>缅因湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>墨西哥湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E7%81%A3</t>
-  </si>
-  <si>
-    <t>聖羅倫斯灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>委内瑞拉湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E6%A3%AE%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>哈德森湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E7%81%A3</t>
-  </si>
-  <si>
-    <t>詹姆斯灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>爱奥尼亚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>愛爾蘭海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%88%BE%E6%98%8E%E5%8E%84%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>伊爾明厄海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B8%83%E6%8B%89%E5%A4%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>拉布拉多海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%87%A1%E7%89%B9%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>黎凡特海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>利比亞海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>利古里亞海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>马尔马拉海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>地中海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E6%89%98%E7%BF%81%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>米爾托翁海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7_(%E5%A4%A7%E8%A5%BF%E6%B4%8B)</t>
-  </si>
-  <si>
-    <t>北海 (大西洋)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>挪威海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E6%B5%B7%E9%81%93</t>
-  </si>
-  <si>
-    <t>聖羅倫斯海道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%BE%E8%97%BB%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>马尾藻海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>奧蘭海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%80%9F%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>亞速海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>克里特海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B8%83%E9%87%8C%E5%BA%95%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>赫布里底海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>色雷斯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8B%92%E5%B0%BC%E5%AE%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>第勒尼安海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>印度洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%BE%BE%E6%9B%BC%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>安达曼海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>阿拉伯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E7%81%A3</t>
-  </si>
-  <si>
-    <t>孟加拉灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%B8%81%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>亚丁湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%96%80%E5%B7%B4%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>亚喀巴湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E8%B4%9D%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>坎贝湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%98%A0%E5%A5%87%E7%81%A3</t>
-  </si>
-  <si>
-    <t>嘠奇灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E7%81%A3</t>
-  </si>
-  <si>
-    <t>阿曼灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%BC%8A%E5%A3%AB%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>苏伊士湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%85%8B%E4%BB%A3%E5%A4%AB%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>拉克代夫海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>莫桑比克海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>波斯湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>红海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%AD%E7%94%B2%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>马六甲海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E6%B1%B6%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>帝汶海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%BC%97%E6%8B%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>阿拉弗拉海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%87%E9%87%8C%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>峇里海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E8%BE%BE%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>班达海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%BE%E6%96%AF%E9%BA%A6%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>俾斯麦海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A4%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>渤海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%92%8C%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>保和海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%8E%AB%E7%89%B9%E6%96%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>卡莫特斯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E4%BC%AF%E6%96%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>西里伯斯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>台灣海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>巴士海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%98%AD%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>塞蘭海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>智利海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>珊瑚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>东海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E5%8B%92%E6%96%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>弗洛勒斯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>阿拉斯加湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>加利福尼亚湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A5%94%E5%A1%94%E5%88%A9%E4%BA%9E%E7%81%A3</t>
-  </si>
-  <si>
-    <t>卡奔塔利亞灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E5%A1%9E%E5%8D%A1%E7%81%A3</t>
-  </si>
-  <si>
-    <t>豐塞卡灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E7%81%A3</t>
-  </si>
-  <si>
-    <t>泰國灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>北部湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC%E9%BB%91%E6%8B%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>哈馬黑拉海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%AA%E5%93%87%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>爪哇海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>科羅海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9B%E5%8A%A0%E9%94%A1%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>望加锡海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%AD%AF%E5%8F%A4%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>馬魯古海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E7%BE%85%E7%81%A3</t>
-  </si>
-  <si>
-    <t>莫羅灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>菲律宾海</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Salish_Sea</t>
-  </si>
-  <si>
-    <t>en-Salish Sea</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%AD%A6%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>萨武海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>日本海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%84%82%E9%9C%8D%E6%AC%A1%E5%85%8B%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>鄂霍次克海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%80%A8%E6%88%B6%E5%85%A7%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>瀨戶內海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%B8%83%E5%BB%B6%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>錫布延海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>所罗门海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>南海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%A6%84%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>苏禄海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%96%AF%E6%9B%BC%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>塔斯曼海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%B2%99%E9%84%A2%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>米沙鄢海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>黄海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%86%B0%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>南冰洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%99%E6%A3%AE%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>阿蒙森海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%AB%E6%9E%97%E6%96%AF%E9%AB%98%E6%99%8B%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>别林斯高晋海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>英聯邦海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E8%88%AA%E5%93%A1%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>宇航員海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%E6%96%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>戴維斯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%B0%94%E7%BB%B4%E5%B0%94%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>迪尔维尔海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BA%B7%E4%B8%83%E4%B8%96%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>哈康七世海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%89%8E%E5%88%97%E5%A4%AB%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>拉扎列夫海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%91%9F%E7%88%BE-%E6%8B%89%E6%A3%AE%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>里瑟爾-拉森海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A3%AE%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>莫森海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>罗斯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E8%88%8D%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>斯科舍海</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Somov_Sea</t>
-  </si>
-  <si>
-    <t>en-Somov Sea</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BE%B7%E5%B0%94%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>威德尔海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B9%B9%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>鹹海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A3%A1%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>裡海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%88%BE%E9%A0%93%E6%B9%96</t>
-  </si>
-  <si>
-    <t>索爾頓湖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>死海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1697,7 +1700,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -2274,7 +2277,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -2300,10 +2303,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="G30" t="n">
         <v>7</v>
@@ -2329,10 +2332,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2358,10 +2361,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2387,10 +2390,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -2416,10 +2419,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2445,10 +2448,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2474,10 +2477,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2503,10 +2506,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2532,10 +2535,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2561,10 +2564,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2590,10 +2593,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2619,10 +2622,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2648,10 +2651,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2677,10 +2680,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2706,10 +2709,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2735,10 +2738,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2764,10 +2767,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2793,10 +2796,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2822,10 +2825,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2851,10 +2854,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2880,10 +2883,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2909,10 +2912,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2938,10 +2941,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2967,10 +2970,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2996,10 +2999,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3025,10 +3028,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3054,10 +3057,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3083,10 +3086,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3112,10 +3115,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3141,10 +3144,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3170,10 +3173,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3199,10 +3202,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3228,10 +3231,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3257,10 +3260,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3286,10 +3289,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3315,10 +3318,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3344,10 +3347,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3373,10 +3376,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3402,10 +3405,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3431,10 +3434,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3460,10 +3463,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3489,10 +3492,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3518,10 +3521,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3547,10 +3550,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3576,10 +3579,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3605,10 +3608,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3634,10 +3637,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3663,10 +3666,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3692,10 +3695,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3721,10 +3724,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3750,10 +3753,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3779,10 +3782,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3808,10 +3811,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3837,10 +3840,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3866,10 +3869,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3895,10 +3898,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3924,10 +3927,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3953,10 +3956,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3982,10 +3985,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4011,10 +4014,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4040,10 +4043,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4069,10 +4072,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4098,10 +4101,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4127,10 +4130,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4156,10 +4159,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4185,10 +4188,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4214,10 +4217,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4243,10 +4246,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4272,10 +4275,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4301,10 +4304,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4330,10 +4333,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4359,10 +4362,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4388,10 +4391,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4417,10 +4420,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4446,10 +4449,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4475,10 +4478,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4504,10 +4507,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4533,10 +4536,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4562,10 +4565,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4591,10 +4594,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4620,10 +4623,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4649,10 +4652,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4678,10 +4681,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4707,10 +4710,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4736,10 +4739,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4765,10 +4768,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4794,10 +4797,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4823,10 +4826,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4852,10 +4855,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4881,10 +4884,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4910,10 +4913,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4939,10 +4942,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4968,10 +4971,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4997,10 +5000,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5026,10 +5029,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5055,10 +5058,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5084,10 +5087,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5113,10 +5116,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5142,10 +5145,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5171,10 +5174,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5200,10 +5203,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5229,10 +5232,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5258,10 +5261,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5287,10 +5290,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5316,10 +5319,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5345,10 +5348,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5374,10 +5377,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5403,10 +5406,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5432,10 +5435,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5461,10 +5464,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5490,10 +5493,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5519,10 +5522,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5548,10 +5551,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5577,10 +5580,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5606,10 +5609,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5635,10 +5638,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5664,10 +5667,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5693,10 +5696,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5722,10 +5725,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5751,10 +5754,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5780,10 +5783,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5809,10 +5812,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5838,10 +5841,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5867,10 +5870,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5896,10 +5899,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5925,10 +5928,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5954,10 +5957,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5983,10 +5986,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6012,10 +6015,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6041,10 +6044,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6070,10 +6073,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6099,10 +6102,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6128,10 +6131,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6157,10 +6160,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6186,10 +6189,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6215,10 +6218,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6244,10 +6247,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6273,10 +6276,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6302,10 +6305,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6331,10 +6334,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6360,10 +6363,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6389,10 +6392,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6418,10 +6421,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6447,10 +6450,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6476,10 +6479,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6505,10 +6508,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6534,10 +6537,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6563,10 +6566,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6592,10 +6595,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -6621,10 +6624,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6650,18 +6653,76 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>355</v>
+      </c>
+      <c r="F180" t="s">
+        <v>356</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
+      </c>
+      <c r="H180" t="s">
+        <v>4</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>180</v>
+      </c>
+      <c r="E181" t="s">
         <v>357</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F181" t="s">
         <v>358</v>
       </c>
-      <c r="G180" t="n">
-        <v>1</v>
-      </c>
-      <c r="H180" t="s">
-        <v>4</v>
-      </c>
-      <c r="I180" t="n">
+      <c r="G181" t="n">
+        <v>6</v>
+      </c>
+      <c r="H181" t="s">
+        <v>4</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>181</v>
+      </c>
+      <c r="E182" t="s">
+        <v>357</v>
+      </c>
+      <c r="F182" t="s">
+        <v>359</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="s">
+        <v>4</v>
+      </c>
+      <c r="I182" t="n">
         <v>3</v>
       </c>
     </row>
